--- a/db/capteurbase.xlsx
+++ b/db/capteurbase.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antoinestaumont/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antoinestaumont/code/Bossanov/aacdor/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{63D992D6-C11A-AB45-91CD-48DB8A28E7E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC273E3C-850A-884E-BB3A-D10721A22A61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4560" yWindow="1560" windowWidth="27240" windowHeight="16440" xr2:uid="{497806E5-FF33-C049-A140-75606BFE234B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{497806E5-FF33-C049-A140-75606BFE234B}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="84">
   <si>
     <t>PLANMECA</t>
   </si>
@@ -281,6 +281,9 @@
   </si>
   <si>
     <t>ERLM</t>
+  </si>
+  <si>
+    <t>Argentique</t>
   </si>
 </sst>
 </file>
@@ -638,10 +641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A164E952-9FCF-7743-B065-1B4A5B8E46A4}">
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1200,6 +1203,17 @@
         <v>82</v>
       </c>
     </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B51" t="s">
+        <v>83</v>
+      </c>
+      <c r="C51" t="s">
+        <v>83</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
